--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Timp3-Agtr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Timp3-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Timp3</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>150.258513</v>
+        <v>125.60613</v>
       </c>
       <c r="H2">
-        <v>450.775539</v>
+        <v>376.81839</v>
       </c>
       <c r="I2">
-        <v>0.5395416880146598</v>
+        <v>0.5776575759508482</v>
       </c>
       <c r="J2">
-        <v>0.5395416880146598</v>
+        <v>0.5776575759508483</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>34.682839</v>
+        <v>0.045282</v>
       </c>
       <c r="N2">
-        <v>104.048517</v>
+        <v>0.135846</v>
       </c>
       <c r="O2">
-        <v>0.9919940127517238</v>
+        <v>0.001264082841858775</v>
       </c>
       <c r="P2">
-        <v>0.9919940127517238</v>
+        <v>0.001264082841858776</v>
       </c>
       <c r="Q2">
-        <v>5211.391814758407</v>
+        <v>5.687696778659999</v>
       </c>
       <c r="R2">
-        <v>46902.52633282566</v>
+        <v>51.18927100794</v>
       </c>
       <c r="S2">
-        <v>0.5352221241405011</v>
+        <v>0.0007302070302291995</v>
       </c>
       <c r="T2">
-        <v>0.5352221241405011</v>
+        <v>0.0007302070302291999</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,60 +596,60 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>150.258513</v>
+        <v>125.60613</v>
       </c>
       <c r="H3">
-        <v>450.775539</v>
+        <v>376.81839</v>
       </c>
       <c r="I3">
-        <v>0.5395416880146598</v>
+        <v>0.5776575759508482</v>
       </c>
       <c r="J3">
-        <v>0.5395416880146598</v>
+        <v>0.5776575759508483</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2799113333333333</v>
+        <v>34.682839</v>
       </c>
       <c r="N3">
-        <v>0.839734</v>
+        <v>104.048517</v>
       </c>
       <c r="O3">
-        <v>0.008005987248276263</v>
+        <v>0.9681988800594137</v>
       </c>
       <c r="P3">
-        <v>0.008005987248276263</v>
+        <v>0.9681988800594138</v>
       </c>
       <c r="Q3">
-        <v>42.059060718514</v>
+        <v>4356.37718420307</v>
       </c>
       <c r="R3">
-        <v>378.531546466626</v>
+        <v>39207.39465782764</v>
       </c>
       <c r="S3">
-        <v>0.004319563874158817</v>
+        <v>0.559287418093447</v>
       </c>
       <c r="T3">
-        <v>0.004319563874158817</v>
+        <v>0.5592874180934471</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.46294533333333</v>
+        <v>125.60613</v>
       </c>
       <c r="H4">
-        <v>109.388836</v>
+        <v>376.81839</v>
       </c>
       <c r="I4">
-        <v>0.1309295472339256</v>
+        <v>0.5776575759508482</v>
       </c>
       <c r="J4">
-        <v>0.1309295472339256</v>
+        <v>0.5776575759508483</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>34.682839</v>
+        <v>1.093898333333333</v>
       </c>
       <c r="N4">
-        <v>104.048517</v>
+        <v>3.281695</v>
       </c>
       <c r="O4">
-        <v>0.9919940127517238</v>
+        <v>0.03053703709872749</v>
       </c>
       <c r="P4">
-        <v>0.9919940127517238</v>
+        <v>0.03053703709872749</v>
       </c>
       <c r="Q4">
-        <v>1264.638462461801</v>
+        <v>137.40033626345</v>
       </c>
       <c r="R4">
-        <v>11381.74616215621</v>
+        <v>1236.60302637105</v>
       </c>
       <c r="S4">
-        <v>0.1298813269483483</v>
+        <v>0.01763995082717204</v>
       </c>
       <c r="T4">
-        <v>0.1298813269483483</v>
+        <v>0.01763995082717205</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +726,51 @@
         <v>109.388836</v>
       </c>
       <c r="I5">
-        <v>0.1309295472339256</v>
+        <v>0.1676916294872044</v>
       </c>
       <c r="J5">
-        <v>0.1309295472339256</v>
+        <v>0.1676916294872044</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2799113333333333</v>
+        <v>0.045282</v>
       </c>
       <c r="N5">
-        <v>0.839734</v>
+        <v>0.135846</v>
       </c>
       <c r="O5">
-        <v>0.008005987248276263</v>
+        <v>0.001264082841858775</v>
       </c>
       <c r="P5">
-        <v>0.008005987248276263</v>
+        <v>0.001264082841858776</v>
       </c>
       <c r="Q5">
-        <v>10.20639164551378</v>
+        <v>1.651115090584</v>
       </c>
       <c r="R5">
-        <v>91.857524809624</v>
+        <v>14.860035815256</v>
       </c>
       <c r="S5">
-        <v>0.001048220285577393</v>
+        <v>0.0002119761115581141</v>
       </c>
       <c r="T5">
-        <v>0.001048220285577393</v>
+        <v>0.0002119761115581142</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -785,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>91.53790766666667</v>
+        <v>36.46294533333333</v>
       </c>
       <c r="H6">
-        <v>274.613723</v>
+        <v>109.388836</v>
       </c>
       <c r="I6">
-        <v>0.3286903100112765</v>
+        <v>0.1676916294872044</v>
       </c>
       <c r="J6">
-        <v>0.3286903100112764</v>
+        <v>0.1676916294872044</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +806,33 @@
         <v>104.048517</v>
       </c>
       <c r="O6">
-        <v>0.9919940127517238</v>
+        <v>0.9681988800594137</v>
       </c>
       <c r="P6">
-        <v>0.9919940127517238</v>
+        <v>0.9681988800594138</v>
       </c>
       <c r="Q6">
-        <v>3174.794513999866</v>
+        <v>1264.638462461801</v>
       </c>
       <c r="R6">
-        <v>28573.15062599879</v>
+        <v>11381.74616215621</v>
       </c>
       <c r="S6">
-        <v>0.3260588195806943</v>
+        <v>0.1623588478648494</v>
       </c>
       <c r="T6">
-        <v>0.3260588195806942</v>
+        <v>0.1623588478648495</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -847,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>91.53790766666667</v>
+        <v>36.46294533333333</v>
       </c>
       <c r="H7">
-        <v>274.613723</v>
+        <v>109.388836</v>
       </c>
       <c r="I7">
-        <v>0.3286903100112765</v>
+        <v>0.1676916294872044</v>
       </c>
       <c r="J7">
-        <v>0.3286903100112764</v>
+        <v>0.1676916294872044</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,152 +862,214 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2799113333333333</v>
+        <v>1.093898333333333</v>
       </c>
       <c r="N7">
-        <v>0.839734</v>
+        <v>3.281695</v>
       </c>
       <c r="O7">
-        <v>0.008005987248276263</v>
+        <v>0.03053703709872749</v>
       </c>
       <c r="P7">
-        <v>0.008005987248276263</v>
+        <v>0.03053703709872749</v>
       </c>
       <c r="Q7">
-        <v>25.62249778552022</v>
+        <v>39.88675512855778</v>
       </c>
       <c r="R7">
-        <v>230.602480069682</v>
+        <v>358.98079615702</v>
       </c>
       <c r="S7">
-        <v>0.002631490430582251</v>
+        <v>0.005120805510796824</v>
       </c>
       <c r="T7">
-        <v>0.002631490430582251</v>
+        <v>0.005120805510796825</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2335036666666667</v>
+        <v>55.37138633333333</v>
       </c>
       <c r="H8">
-        <v>0.700511</v>
+        <v>166.114159</v>
       </c>
       <c r="I8">
-        <v>0.0008384547401380566</v>
+        <v>0.2546507945619474</v>
       </c>
       <c r="J8">
-        <v>0.0008384547401380566</v>
+        <v>0.2546507945619474</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>34.682839</v>
+        <v>0.045282</v>
       </c>
       <c r="N8">
-        <v>104.048517</v>
+        <v>0.135846</v>
       </c>
       <c r="O8">
-        <v>0.9919940127517238</v>
+        <v>0.001264082841858775</v>
       </c>
       <c r="P8">
-        <v>0.9919940127517238</v>
+        <v>0.001264082841858776</v>
       </c>
       <c r="Q8">
-        <v>8.098570076909667</v>
+        <v>2.507327115946</v>
       </c>
       <c r="R8">
-        <v>72.887130692187</v>
+        <v>22.565944043514</v>
       </c>
       <c r="S8">
-        <v>0.0008317420821802546</v>
+        <v>0.0003218997000714616</v>
       </c>
       <c r="T8">
-        <v>0.0008317420821802546</v>
+        <v>0.0003218997000714617</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>55.37138633333333</v>
+      </c>
+      <c r="H9">
+        <v>166.114159</v>
+      </c>
+      <c r="I9">
+        <v>0.2546507945619474</v>
+      </c>
+      <c r="J9">
+        <v>0.2546507945619474</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>34.682839</v>
+      </c>
+      <c r="N9">
+        <v>104.048517</v>
+      </c>
+      <c r="O9">
+        <v>0.9681988800594137</v>
+      </c>
+      <c r="P9">
+        <v>0.9681988800594138</v>
+      </c>
+      <c r="Q9">
+        <v>1920.4368774058</v>
+      </c>
+      <c r="R9">
+        <v>17283.9318966522</v>
+      </c>
+      <c r="S9">
+        <v>0.2465526141011173</v>
+      </c>
+      <c r="T9">
+        <v>0.2465526141011174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>55.37138633333333</v>
+      </c>
+      <c r="H10">
+        <v>166.114159</v>
+      </c>
+      <c r="I10">
+        <v>0.2546507945619474</v>
+      </c>
+      <c r="J10">
+        <v>0.2546507945619474</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.2335036666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.700511</v>
-      </c>
-      <c r="I9">
-        <v>0.0008384547401380566</v>
-      </c>
-      <c r="J9">
-        <v>0.0008384547401380566</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.2799113333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.839734</v>
-      </c>
-      <c r="O9">
-        <v>0.008005987248276263</v>
-      </c>
-      <c r="P9">
-        <v>0.008005987248276263</v>
-      </c>
-      <c r="Q9">
-        <v>0.06536032267488889</v>
-      </c>
-      <c r="R9">
-        <v>0.5882429040739999</v>
-      </c>
-      <c r="S9">
-        <v>6.712657957802069E-06</v>
-      </c>
-      <c r="T9">
-        <v>6.712657957802069E-06</v>
+      <c r="M10">
+        <v>1.093898333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.281695</v>
+      </c>
+      <c r="O10">
+        <v>0.03053703709872749</v>
+      </c>
+      <c r="P10">
+        <v>0.03053703709872749</v>
+      </c>
+      <c r="Q10">
+        <v>60.57066722438945</v>
+      </c>
+      <c r="R10">
+        <v>545.136005019505</v>
+      </c>
+      <c r="S10">
+        <v>0.007776280760758619</v>
+      </c>
+      <c r="T10">
+        <v>0.007776280760758621</v>
       </c>
     </row>
   </sheetData>
